--- a/_dev/Проект (список номенклатур).xlsx
+++ b/_dev/Проект (список номенклатур).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kontur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Open_server_dist\OSPanel\domains\moloko.gg\_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F456595-14DA-46A6-8432-46C40DB00663}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Номенклатура" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
   <si>
     <t>Биокефир Домодедовский жир. 1% (930гр)</t>
   </si>
@@ -149,9 +150,6 @@
     <t>Творог Домодедовский обезжиренный м.д.ж. не менее 1,8 %  (в ведре 3кг.)</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -249,12 +247,18 @@
   </si>
   <si>
     <t>Объем</t>
+  </si>
+  <si>
+    <t>Срок годности (суток)</t>
+  </si>
+  <si>
+    <t>Код (удален)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,7 +330,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
+    <cellStyle name="Обычный_Лист1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,44 +607,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>40000013733</v>
       </c>
@@ -657,10 +665,13 @@
         <v>4630008891087</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>40000006588</v>
       </c>
@@ -677,10 +688,13 @@
         <v>4630008890882</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>40000013404</v>
       </c>
@@ -697,10 +711,13 @@
         <v>4630008890998</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>40000006587</v>
       </c>
@@ -717,10 +734,13 @@
         <v>4630008890929</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40000006586</v>
       </c>
@@ -737,10 +757,13 @@
         <v>4630008890936</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>40000006590</v>
       </c>
@@ -757,10 +780,13 @@
         <v>4630008890875</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>40000001391</v>
       </c>
@@ -777,10 +803,13 @@
         <v>4630008890806</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>40000001392</v>
       </c>
@@ -797,10 +826,13 @@
         <v>4630008890721</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>40000013993</v>
       </c>
@@ -817,10 +849,13 @@
         <v>4630008891209</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>40000001532</v>
       </c>
@@ -837,10 +872,13 @@
         <v>4630008890745</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>40000001383</v>
       </c>
@@ -857,10 +895,13 @@
         <v>4630008890752</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>40000015988</v>
       </c>
@@ -877,10 +918,13 @@
         <v>4630008891278</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>40000001385</v>
       </c>
@@ -897,10 +941,13 @@
         <v>4630008890769</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>40000001384</v>
       </c>
@@ -917,10 +964,13 @@
         <v>4630008890776</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>40000013176</v>
       </c>
@@ -937,7 +987,7 @@
         <v>4630008891032</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,7 +1007,7 @@
         <v>4630008890783</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,7 +1027,7 @@
         <v>4630008891018</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,7 +1047,7 @@
         <v>4630008890738</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1017,7 +1067,7 @@
         <v>4630008890073</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,7 +1087,7 @@
         <v>4630008890097</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,7 +1105,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1125,7 @@
         <v>4630008890790</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,7 +1145,7 @@
         <v>4630008891025</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,7 +1163,7 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1181,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,7 +1201,7 @@
         <v>4630008890943</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,7 +1221,7 @@
         <v>4630008891308</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,7 +1241,7 @@
         <v>4630008891292</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,7 +1261,7 @@
         <v>4630008890196</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,7 +1281,7 @@
         <v>4630008890691</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,7 +1299,7 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,7 +1319,7 @@
         <v>4630008890127</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,7 +1339,7 @@
         <v>4630008890684</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,7 +1359,7 @@
         <v>4630008891315</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,7 +1379,7 @@
         <v>4630008891377</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1397,7 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,7 +1417,7 @@
         <v>4630008890905</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,7 +1437,7 @@
         <v>4630008890912</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,7 +1455,7 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,16 +1463,16 @@
         <v>40000007633</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,16 +1480,16 @@
         <v>10000000001</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,16 +1497,16 @@
         <v>10000000002</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,16 +1514,16 @@
         <v>10000000003</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,16 +1531,16 @@
         <v>10000000004</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,16 +1548,16 @@
         <v>10000000005</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,16 +1565,16 @@
         <v>10000000006</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1582,7 @@
         <v>10000000007</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>26</v>
@@ -1541,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,16 +1599,16 @@
         <v>10000000008</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,16 +1616,16 @@
         <v>10000000009</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,16 +1633,16 @@
         <v>10000000010</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,16 +1650,16 @@
         <v>10000000011</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,16 +1667,16 @@
         <v>10000000012</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,16 +1684,16 @@
         <v>10000000013</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,16 +1701,16 @@
         <v>10000000014</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,7 +1718,7 @@
         <v>10000000015</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>26</v>
@@ -1677,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,7 +1735,7 @@
         <v>10000000016</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>26</v>
@@ -1694,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,7 +1752,7 @@
         <v>10000000017</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>26</v>
@@ -1711,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1769,7 @@
         <v>10000000018</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>26</v>
@@ -1728,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1786,7 @@
         <v>10000000019</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>26</v>
@@ -1745,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,7 +1803,7 @@
         <v>10000000020</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>26</v>
@@ -1762,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1820,7 @@
         <v>10000000021</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>26</v>
@@ -1779,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1837,7 @@
         <v>10000000022</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>26</v>
@@ -1796,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,16 +1854,16 @@
         <v>20000000001</v>
       </c>
       <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
